--- a/meta/17-8-1.xlsx
+++ b/meta/17-8-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист" sheetId="2" r:id="rId1"/>
@@ -100,22 +100,10 @@
     <t>Обеспечить к 2017 году полномасштабное функционирование банка технологий и механизма развития науки, технологий и инноваций в интересах наименее развитых стран и расширить использование высокоэффективных технологий, в частности информационно-коммуникационных технологий</t>
   </si>
   <si>
-    <t>17.8.1. Доля населения, пользующегося Интернетом</t>
-  </si>
-  <si>
-    <t>Национальный статистический комитет Кыргызской Республики (Отдел статистики домашних хозяйств)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Калымбетова Ы.И.</t>
   </si>
   <si>
-    <t xml:space="preserve">y.kalymbetova@gmail.com </t>
-  </si>
-  <si>
     <t>(0312) 32-46-55</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
   </si>
   <si>
     <t>Показатель доли лиц, пользующихся Интернетом, определяется как доля лиц, использовавших Интернет из любого места в течение последних трех месяцев к общему числу опрошенных (лиц старше 15 лет).</t>
@@ -143,18 +131,38 @@
   <si>
     <t>Национальная платформа отчётности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io
 Ссылка на глобальную платформу метаданных: https://unstats.un.org/sdgs/metadata/?Text=&amp;Goal=17&amp;Target=</t>
+  </si>
+  <si>
+    <t>17.8.1 Доля населения, пользующегося Интернетом</t>
+  </si>
+  <si>
+    <t>Национальный статистический комитет Кыргызской Республики (Управление статистики домашних хозяйств)</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yryskan.kalymbetova@gmail.com </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,26 +229,34 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -552,7 +568,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,7 +605,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -602,8 +618,8 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>29</v>
+      <c r="B6" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -611,15 +627,15 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>31</v>
+      <c r="B8" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -627,15 +643,15 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>33</v>
+      <c r="B10" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -649,7 +665,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -657,7 +673,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="405.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -665,7 +681,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -679,7 +695,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -687,7 +703,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -731,7 +747,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -745,7 +761,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
